--- a/ld_obr_2001.xlsx
+++ b/ld_obr_2001.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -72,7 +72,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="7"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -82,16 +82,19 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="7"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
-Specifikacija uz isplatu plaća zaposlenika u radnom odnosu kod pravnih I fizičkih lica</t>
+</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">bring.out v16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dio 1 – Podaci o poslodavcu/isplatiocu i plaćama</t>
   </si>
   <si>
@@ -152,6 +155,12 @@
     <t xml:space="preserve"> 5) Period (od/do) Dan/mjesec/godina</t>
   </si>
   <si>
+    <t xml:space="preserve">${adresa}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${opcina}</t>
+  </si>
+  <si>
     <t xml:space="preserve">${d_od_1}</t>
   </si>
   <si>
@@ -209,9 +218,15 @@
     <t xml:space="preserve">${g_do_4}</t>
   </si>
   <si>
+    <t xml:space="preserve">${vrsta_djeatnosti}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Brisanje podataka podataka za već predate specifikacije 2002 poslane fondovima</t>
   </si>
   <si>
+    <t xml:space="preserve">${broj_zaposlenih}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 8) Plaće u novcu</t>
   </si>
   <si>
@@ -224,36 +239,66 @@
     <t xml:space="preserve">11)</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_11}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Nerezident</t>
   </si>
   <si>
     <t xml:space="preserve">12)</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_12}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Izuzeci po članu 6. tačka 10. Zakona</t>
   </si>
   <si>
+    <t xml:space="preserve">${place_u_novcu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${place_u_stvarima}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${ukupne_place}</t>
+  </si>
+  <si>
     <t xml:space="preserve">13)</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_13}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Konsolidacija privrednih društava</t>
   </si>
   <si>
     <t xml:space="preserve">14)</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_14}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Po osnovu dugovanja sportskih kolektiva</t>
   </si>
   <si>
     <t xml:space="preserve"> 15) Vrsta isplate (označiti odgovarajuće polje)</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_15a}</t>
+  </si>
+  <si>
     <t xml:space="preserve">a) doprinosa I poreza</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_15b}</t>
+  </si>
+  <si>
     <t xml:space="preserve">b) samo doprinosa</t>
   </si>
   <si>
+    <t xml:space="preserve">${check_15c}</t>
+  </si>
+  <si>
     <t xml:space="preserve">c) samo poreza</t>
   </si>
   <si>
@@ -356,24 +401,15 @@
     <t xml:space="preserve">c) Iznos</t>
   </si>
   <si>
-    <t xml:space="preserve">Doprinosi za penzijsko I invalidsko osiguranje (16+20+23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${iznos_26}</t>
+    <t xml:space="preserve">Doprinosi za penzijsko i invalidsko osiguranje (16+20+23)</t>
   </si>
   <si>
     <t xml:space="preserve">Doprinosi za zdravstveno osiguranje (17+21+24)</t>
   </si>
   <si>
-    <t xml:space="preserve">${iznos_27}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doprinosi za osiguranje od nezaposlenosti (18+22)</t>
   </si>
   <si>
-    <t xml:space="preserve">${iznos_28}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Porez na dohodak</t>
   </si>
   <si>
@@ -381,9 +417,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ukupne obaveze (26+27+28+29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${iznos_30}</t>
   </si>
   <si>
     <t xml:space="preserve">Dio 4 - Izjava poslodavca/isplatioca</t>
@@ -405,10 +438,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -525,13 +559,27 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="5"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -542,13 +590,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -574,7 +615,13 @@
       <sz val="7"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -633,7 +680,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -687,14 +734,14 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
-      <top style="thin"/>
+      <top style="hair"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
-      <top style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -713,20 +760,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -741,23 +774,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair"/>
       <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -776,8 +795,15 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -785,13 +811,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
-      <top/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
       <top/>
       <bottom style="hair"/>
       <diagonal/>
@@ -825,6 +844,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -905,7 +931,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -915,22 +941,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -942,19 +968,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,11 +984,79 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -974,179 +1064,127 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1243,15 +1281,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>281520</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1259,16 +1297,57 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="118080" y="3672000"/>
-          <a:ext cx="163440" cy="120240"/>
+        <a:xfrm flipV="1">
+          <a:off x="123840" y="3651840"/>
+          <a:ext cx="267840" cy="172440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
+        <a:noFill/>
+        <a:ln w="18360">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>98640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4734720" y="3631320"/>
+          <a:ext cx="280080" cy="199080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="18360">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
@@ -1288,32 +1367,30 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>373680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:colOff>421560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>90360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2516040" y="3664080"/>
-          <a:ext cx="163440" cy="120240"/>
+          <a:off x="2563920" y="3636000"/>
+          <a:ext cx="256680" cy="194040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="18360">
           <a:solidFill>
             <a:srgbClr val="3465a4"/>
@@ -1332,181 +1409,67 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>268920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>666720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvPr id="3" name="TextShape 1"/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6888600" y="4139280"/>
-          <a:ext cx="163440" cy="120240"/>
+          <a:off x="1643400" y="268920"/>
+          <a:ext cx="2973240" cy="397800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="18360">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699800" y="3668400"/>
-          <a:ext cx="163440" cy="120240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="18360">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6888600" y="5273280"/>
-          <a:ext cx="163440" cy="120600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="18360">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6888600" y="6736320"/>
-          <a:ext cx="163440" cy="120600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="18360">
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Arial"/>
+            </a:rPr>
+            <a:t>Specifikacija uz isplatu plaća zaposlenika u radnom odnosu kod pravnih I fizičkih lica</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="600" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial Unicode MS"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -1520,19 +1483,19 @@
   </sheetPr>
   <dimension ref="A1:S65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.55"/>
   </cols>
   <sheetData>
@@ -1552,7 +1515,9 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
+      <c r="L1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1563,7 +1528,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1586,14 +1551,14 @@
     </row>
     <row r="4" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1611,174 +1576,182 @@
     </row>
     <row r="5" customFormat="false" ht="26.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="L7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
+      <c r="N7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="I8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="L8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
+      <c r="N8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -1796,23 +1769,25 @@
     </row>
     <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="25"/>
-      <c r="E10" s="9" t="s">
-        <v>44</v>
+      <c r="E10" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="I10" s="29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -1833,189 +1808,207 @@
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
       <c r="G11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="31"/>
+      <c r="A12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="F12" s="32"/>
       <c r="G12" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="32"/>
       <c r="G13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
+        <v>62</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="A14" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" customFormat="false" ht="6.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
+      <c r="A16" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="49"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
     </row>
     <row r="18" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2036,57 +2029,57 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
+      <c r="C21" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="57" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="O21" s="57"/>
       <c r="P21" s="57"/>
@@ -2094,28 +2087,28 @@
       <c r="R21" s="57"/>
       <c r="S21" s="57"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56" t="n">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="54"/>
+      <c r="B22" s="55" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
+      <c r="C22" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
       <c r="N22" s="57" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="O22" s="57"/>
       <c r="P22" s="57"/>
@@ -2123,28 +2116,28 @@
       <c r="R22" s="57"/>
       <c r="S22" s="57"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56" t="n">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
+      <c r="C23" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="57" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O23" s="57"/>
       <c r="P23" s="57"/>
@@ -2153,25 +2146,25 @@
       <c r="S23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56" t="n">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
+      <c r="C24" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="58"/>
       <c r="K24" s="58"/>
       <c r="L24" s="58"/>
       <c r="M24" s="58"/>
       <c r="N24" s="57" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="O24" s="57"/>
       <c r="P24" s="57"/>
@@ -2179,101 +2172,101 @@
       <c r="R24" s="57"/>
       <c r="S24" s="57"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56" t="n">
+      <c r="A28" s="54"/>
+      <c r="B28" s="55" t="n">
         <v>20</v>
       </c>
-      <c r="C28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="C28" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
       <c r="N28" s="57" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="O28" s="57"/>
       <c r="P28" s="57"/>
@@ -2282,27 +2275,27 @@
       <c r="S28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56" t="n">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55" t="n">
         <v>21</v>
       </c>
-      <c r="C29" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="C29" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
       <c r="N29" s="57" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="O29" s="57"/>
       <c r="P29" s="57"/>
@@ -2311,27 +2304,27 @@
       <c r="S29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56" t="n">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55" t="n">
         <v>22</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="C30" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="57" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="O30" s="57"/>
       <c r="P30" s="57"/>
@@ -2340,27 +2333,27 @@
       <c r="S30" s="57"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56" t="n">
+      <c r="A31" s="54"/>
+      <c r="B31" s="55" t="n">
         <v>23</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="C31" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="57" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O31" s="57"/>
       <c r="P31" s="57"/>
@@ -2369,27 +2362,27 @@
       <c r="S31" s="57"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56" t="n">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55" t="n">
         <v>24</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
+      <c r="C32" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
       <c r="N32" s="57" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O32" s="57"/>
       <c r="P32" s="57"/>
@@ -2398,25 +2391,25 @@
       <c r="S32" s="57"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56" t="n">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55" t="n">
         <v>25</v>
       </c>
-      <c r="C33" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="C33" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
       <c r="J33" s="58"/>
       <c r="K33" s="58"/>
       <c r="L33" s="58"/>
       <c r="M33" s="58"/>
       <c r="N33" s="57" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O33" s="57"/>
       <c r="P33" s="57"/>
@@ -2425,353 +2418,357 @@
       <c r="S33" s="57"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
+      <c r="A35" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56" t="n">
+      <c r="A36" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="53"/>
+      <c r="P36" s="53"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="54"/>
+      <c r="B37" s="55" t="n">
         <v>26</v>
       </c>
-      <c r="C37" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56" t="n">
+      <c r="C37" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="57" t="e">
+        <f aca="false">N21+N28+N31</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55" t="n">
         <v>27</v>
       </c>
-      <c r="C38" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="55"/>
-      <c r="B39" s="56" t="n">
+      <c r="C38" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="57" t="e">
+        <f aca="false">N22+N29+N32</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="54"/>
+      <c r="B39" s="55" t="n">
         <v>28</v>
       </c>
-      <c r="C39" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56" t="n">
+      <c r="C39" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="57" t="e">
+        <f aca="false">N23+N30</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="54"/>
+      <c r="B40" s="55" t="n">
         <v>29</v>
       </c>
-      <c r="C40" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56" t="n">
+      <c r="C40" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55" t="n">
         <v>30</v>
       </c>
-      <c r="C41" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
+      <c r="C41" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="57" t="e">
+        <f aca="false">J37+J38+J39+J40</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
+      <c r="A44" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="61"/>
+      <c r="S44" s="61"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
+      <c r="A45" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51"/>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51"/>
-      <c r="S46" s="51"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="60"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="60"/>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
+      <c r="A48" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="63"/>
+      <c r="S48" s="63"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="92">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="L1:S1"/>
@@ -2792,10 +2789,14 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I11:S11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="I12:S12"/>
     <mergeCell ref="I13:S13"/>
     <mergeCell ref="A14:S14"/>
     <mergeCell ref="A15:S15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="M16:Q16"/>
     <mergeCell ref="A17:S17"/>
     <mergeCell ref="A18:S18"/>
     <mergeCell ref="A19:S19"/>

--- a/ld_obr_2001.xlsx
+++ b/ld_obr_2001.xlsx
@@ -92,7 +92,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">bring.out v16</t>
+    <t xml:space="preserve">bring.out v17</t>
   </si>
   <si>
     <t xml:space="preserve">Dio 1 – Podaci o poslodavcu/isplatiocu i plaćama</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">${g_do_4}</t>
   </si>
   <si>
-    <t xml:space="preserve">${vrsta_djeatnosti}</t>
+    <t xml:space="preserve">${vrsta_djelatnosti}</t>
   </si>
   <si>
     <t xml:space="preserve"> Brisanje podataka podataka za već predate specifikacije 2002 poslane fondovima</t>
@@ -442,7 +442,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -571,13 +571,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="5"/>
       <name val="Arial"/>
@@ -590,6 +583,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -612,16 +612,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="10">
@@ -931,7 +926,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,15 +939,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -968,11 +963,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1008,7 +1003,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1028,15 +1023,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1044,11 +1039,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,7 +1059,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1096,11 +1091,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1120,12 +1115,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1140,11 +1131,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1172,7 +1163,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1287,9 +1278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1299,7 +1290,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="123840" y="3651840"/>
-          <a:ext cx="267840" cy="172440"/>
+          <a:ext cx="267480" cy="172080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1330,9 +1321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>98640</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1342,7 +1333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4734720" y="3631320"/>
-          <a:ext cx="280080" cy="199080"/>
+          <a:ext cx="279720" cy="198720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,9 +1364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>90360</xdr:colOff>
+      <xdr:colOff>90000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1385,7 +1376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2563920" y="3636000"/>
-          <a:ext cx="256680" cy="194040"/>
+          <a:ext cx="256320" cy="193680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1416,19 +1407,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>666720</xdr:rowOff>
+      <xdr:rowOff>666360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextShape 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1643400" y="268920"/>
-          <a:ext cx="2973240" cy="397800"/>
+          <a:off x="1644120" y="268920"/>
+          <a:ext cx="2972160" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,12 +1429,22 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0"/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+            <a:rPr b="1" lang="bs-BA" sz="1000" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1456,7 +1457,7 @@
             </a:rPr>
             <a:t>Specifikacija uz isplatu plaća zaposlenika u radnom odnosu kod pravnih I fizičkih lica</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="600" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="bs-BA" sz="1200" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -1465,8 +1466,7 @@
                 <a:srgbClr val="ffffff"/>
               </a:solidFill>
             </a:uFill>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial Unicode MS"/>
+            <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1483,19 +1483,19 @@
   </sheetPr>
   <dimension ref="A1:S65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36:S36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="6" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="8.55"/>
   </cols>
   <sheetData>
@@ -1951,7 +1951,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="46"/>
       <c r="K16" s="46"/>
-      <c r="L16" s="48" t="s">
+      <c r="L16" s="46" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="45" t="s">
@@ -1962,49 +1962,49 @@
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="46"/>
-      <c r="S16" s="49"/>
+      <c r="S16" s="48"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
     </row>
     <row r="18" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -2030,741 +2030,741 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55" t="n">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56" t="s">
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="57" t="s">
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55" t="n">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54" t="n">
         <v>17</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="57" t="s">
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55" t="n">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54" t="n">
         <v>18</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56" t="s">
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55" t="n">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54" t="n">
         <v>19</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="57" t="s">
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="15.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53" t="s">
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55" t="n">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54" t="n">
         <v>20</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="56" t="s">
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="57" t="s">
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55" t="n">
+      <c r="A29" s="53"/>
+      <c r="B29" s="54" t="n">
         <v>21</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56" t="s">
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57" t="s">
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55" t="n">
+      <c r="A30" s="53"/>
+      <c r="B30" s="54" t="n">
         <v>22</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56" t="s">
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57" t="s">
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55" t="n">
+      <c r="A31" s="53"/>
+      <c r="B31" s="54" t="n">
         <v>23</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56" t="s">
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="57" t="s">
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55" t="n">
+      <c r="A32" s="53"/>
+      <c r="B32" s="54" t="n">
         <v>24</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="56" t="s">
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="57" t="s">
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55" t="n">
+      <c r="A33" s="53"/>
+      <c r="B33" s="54" t="n">
         <v>25</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="57" t="s">
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53" t="s">
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55" t="n">
+      <c r="A37" s="53"/>
+      <c r="B37" s="54" t="n">
         <v>26</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="57" t="e">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="56" t="e">
         <f aca="false">N21+N28+N31</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
     </row>
     <row r="38" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55" t="n">
+      <c r="A38" s="53"/>
+      <c r="B38" s="54" t="n">
         <v>27</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="57" t="e">
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="56" t="e">
         <f aca="false">N22+N29+N32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
     </row>
     <row r="39" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55" t="n">
+      <c r="A39" s="53"/>
+      <c r="B39" s="54" t="n">
         <v>28</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="57" t="e">
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="56" t="e">
         <f aca="false">N23+N30</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
     </row>
     <row r="40" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55" t="n">
+      <c r="A40" s="53"/>
+      <c r="B40" s="54" t="n">
         <v>29</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="57" t="s">
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="56"/>
     </row>
     <row r="41" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55" t="n">
+      <c r="A41" s="53"/>
+      <c r="B41" s="54" t="n">
         <v>30</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="57" t="e">
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="56" t="e">
         <f aca="false">J37+J38+J39+J40</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62" t="s">
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="50"/>
-      <c r="Q46" s="50"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="63"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/ld_obr_2001.xlsx
+++ b/ld_obr_2001.xlsx
@@ -92,7 +92,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">bring.out v17</t>
+    <t xml:space="preserve">bring.out v18</t>
   </si>
   <si>
     <t xml:space="preserve">Dio 1 – Podaci o poslodavcu/isplatiocu i plaćama</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">Ukupne obaveze (26+27+28+29)</t>
   </si>
   <si>
-    <t xml:space="preserve">Dio 4 - Izjava poslodavca/isplatioca</t>
+    <t xml:space="preserve">Dio 5 - Izjava poslodavca/isplatioca</t>
   </si>
   <si>
     <t xml:space="preserve">Upoznat sam sa svim sankcijama propisanim Zakonom I drugim propisima, izjavljujem da su podaci navedeni u ovoj specfikaciji uključujući sve priloge tačni, potpuni I jasni</t>
@@ -1274,13 +1274,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>123840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1289,8 +1289,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="123840" y="3651840"/>
-          <a:ext cx="267480" cy="172080"/>
+          <a:off x="123840" y="3651120"/>
+          <a:ext cx="267120" cy="171720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,14 +1316,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1332,8 +1332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4734720" y="3631320"/>
-          <a:ext cx="279720" cy="198720"/>
+          <a:off x="4735440" y="3631320"/>
+          <a:ext cx="279000" cy="198360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,14 +1359,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>421560</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1375,8 +1375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2563920" y="3636000"/>
-          <a:ext cx="256320" cy="193680"/>
+          <a:off x="2564640" y="3636000"/>
+          <a:ext cx="255960" cy="193320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,9 +1407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>666360</xdr:rowOff>
+      <xdr:rowOff>666000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1418,8 +1418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1644120" y="268920"/>
-          <a:ext cx="2972160" cy="397440"/>
+          <a:off x="1644840" y="268920"/>
+          <a:ext cx="2971800" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,8 +1483,8 @@
   </sheetPr>
   <dimension ref="A1:S65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1526,6 +1526,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
+    <row r="2" customFormat="false" ht="9.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
@@ -1985,7 +1986,7 @@
       <c r="R17" s="49"/>
       <c r="S17" s="49"/>
     </row>
-    <row r="18" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="8.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50"/>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -2172,7 +2173,7 @@
       <c r="R24" s="56"/>
       <c r="S24" s="56"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="8.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="58"/>
       <c r="B25" s="58"/>
       <c r="C25" s="58"/>
@@ -2417,7 +2418,7 @@
       <c r="R33" s="56"/>
       <c r="S33" s="56"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="8.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="50"/>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -2629,7 +2630,7 @@
       <c r="R41" s="56"/>
       <c r="S41" s="56"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="5.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="50"/>
       <c r="B42" s="50"/>
       <c r="C42" s="50"/>
@@ -2742,7 +2743,7 @@
       <c r="R46" s="49"/>
       <c r="S46" s="49"/>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="9.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="62" t="s">
         <v>115</v>
